--- a/docs/CareConnect-MedicationStatement-1.xlsx
+++ b/docs/CareConnect-MedicationStatement-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="503">
   <si>
     <t>Path</t>
   </si>
@@ -1300,6 +1300,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>MedicationStatement.dosage.route.coding.system</t>
@@ -8445,10 +8451,10 @@
         <v>408</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>98</v>
+        <v>410</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8517,7 +8523,7 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8528,7 +8534,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8554,23 +8560,23 @@
         <v>64</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>40</v>
@@ -8612,7 +8618,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8630,18 +8636,18 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8667,13 +8673,13 @@
         <v>126</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8723,7 +8729,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8741,18 +8747,18 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8778,14 +8784,14 @@
         <v>70</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8834,7 +8840,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8852,18 +8858,18 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8889,14 +8895,14 @@
         <v>126</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8945,7 +8951,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8963,18 +8969,18 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8997,19 +9003,19 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -9058,7 +9064,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9076,18 +9082,18 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9113,16 +9119,16 @@
         <v>126</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -9171,7 +9177,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9189,18 +9195,18 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9226,16 +9232,16 @@
         <v>147</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -9263,10 +9269,10 @@
         <v>281</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -9284,7 +9290,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9302,7 +9308,7 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -9313,7 +9319,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9336,19 +9342,19 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9397,7 +9403,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9415,7 +9421,7 @@
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9426,7 +9432,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9449,19 +9455,19 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9510,7 +9516,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9528,7 +9534,7 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9539,7 +9545,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9562,19 +9568,19 @@
         <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9623,7 +9629,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9641,7 +9647,7 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9652,7 +9658,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9675,17 +9681,17 @@
         <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9734,7 +9740,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9752,7 +9758,7 @@
         <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9763,7 +9769,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9786,19 +9792,19 @@
         <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9847,7 +9853,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9865,7 +9871,7 @@
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>

--- a/docs/CareConnect-MedicationStatement-1.xlsx
+++ b/docs/CareConnect-MedicationStatement-1.xlsx
@@ -1748,11 +1748,11 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="80.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1765,19 +1765,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.72265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="37.89453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="27.99609375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="135.96875" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-MedicationStatement-1.xlsx
+++ b/docs/CareConnect-MedicationStatement-1.xlsx
@@ -1748,11 +1748,11 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="80.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1765,19 +1765,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.72265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="37.89453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="27.99609375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="135.96875" customWidth="true" bestFit="true"/>
